--- a/BalanceSheet/AMP_bal.xlsx
+++ b/BalanceSheet/AMP_bal.xlsx
@@ -4294,7 +4294,7 @@
         <v>-4909000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1342000000.0</v>
+        <v>1154000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>-621000000.0</v>
@@ -4421,7 +4421,7 @@
         <v>3920000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>5169000000.0</v>
+        <v>4981000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>4771000000.0</v>
